--- a/court-tools/template/zhifuling.xlsx
+++ b/court-tools/template/zhifuling.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>被申请人姓名</t>
     <rPh sb="0" eb="1">
@@ -239,6 +239,20 @@
   </si>
   <si>
     <t>523456789098765432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判员</t>
+    <rPh sb="0" eb="1">
+      <t>shen pan yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗小茜</t>
+    <rPh sb="2" eb="3">
+      <t>xi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -632,7 +646,7 @@
     <col min="10" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -696,8 +710,11 @@
       <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -761,8 +778,11 @@
       <c r="U2" s="1">
         <v>1104.1000000000001</v>
       </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -825,6 +845,9 @@
       </c>
       <c r="U3" s="1">
         <v>339.96000000000004</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
